--- a/Data/Ogliss/GeneSeed - 2017823407/GeneSeed - 2017823407.xlsx
+++ b/Data/Ogliss/GeneSeed - 2017823407/GeneSeed - 2017823407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\RMK\Data\Ogliss\GeneSeed - 2017823407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871010B8-2F4C-43DC-A790-9B48FFE282FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40AAA5-EBD3-4AD9-A83E-11D351B71F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2188,1435 +2188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뮤크라노이드는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>라고도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불리며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새로운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스페이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마린을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>육성하기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스페이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네오파이트에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이식된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열 여섯번째 진-시드 장기입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기관은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중추</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신경계에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이식되며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자극에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반응하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스페이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마린의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피부에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>점액과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유사한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밀랍성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단백질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물질을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분비하게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물질은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피부를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>봉인하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>역할하며,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분비선은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>외부에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처치를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>먼저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작동이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활성화되어야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보통</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자신이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>직접</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시행합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스페이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마린은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이런</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방식으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고치를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형성한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뒤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휴면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>들어가며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과정은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>극한의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>온도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>극도로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환경으로부터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보호합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장님</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3635,13 +2206,1365 @@
   </si>
   <si>
     <t>이게 전부입니다. 변경 사항이 적용되도록 게임을 재시작하세요. -앨리스.\n소스 코드: https://github.com/Ogliss/AntiLudeonGeneSeed \n원본 소스 코드: https://github.com/alycecil</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위버라고도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뮤크라노이드는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아뎁투스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아스타르테스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챕터의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네오파이트에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이식되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유전공적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진시드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장기입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특정한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화학물질에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반응하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마린의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구멍을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점액과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀랍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단백질을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시켜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피부를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보호합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이런</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분비작용은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외부에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이루어지는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요법을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활성화됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직접</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마린은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>들어가기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진공상태에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가까운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>극심한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몹시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시행합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3658,13 +3581,6 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -3708,11 +3624,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4017,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4060,7 +3975,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4077,7 +3992,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>481</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4094,7 +4009,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>482</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4111,7 +4026,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4128,7 +4043,7 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>484</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4145,7 +4060,7 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4162,7 +4077,7 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -4179,7 +4094,7 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>487</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4196,7 +4111,7 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -4213,7 +4128,7 @@
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>489</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -4230,7 +4145,7 @@
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>490</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -4247,7 +4162,7 @@
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>491</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4264,7 +4179,7 @@
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4281,7 +4196,7 @@
       <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -4298,7 +4213,7 @@
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>494</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -4315,7 +4230,7 @@
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>495</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -4332,7 +4247,7 @@
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>496</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -4349,7 +4264,7 @@
       <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>497</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4366,7 +4281,7 @@
       <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4383,7 +4298,7 @@
       <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>499</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -4400,7 +4315,7 @@
       <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>500</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -4417,7 +4332,7 @@
       <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>501</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -4434,7 +4349,7 @@
       <c r="C24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>502</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -4451,7 +4366,7 @@
       <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>503</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -4468,7 +4383,7 @@
       <c r="C26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>504</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -4485,7 +4400,7 @@
       <c r="C27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>505</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4502,7 +4417,7 @@
       <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -4519,7 +4434,7 @@
       <c r="C29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4536,7 +4451,7 @@
       <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4553,7 +4468,7 @@
       <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4570,7 +4485,7 @@
       <c r="C32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>510</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4587,7 +4502,7 @@
       <c r="C33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4604,7 +4519,7 @@
       <c r="C34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>512</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4621,7 +4536,7 @@
       <c r="C35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>513</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -4638,7 +4553,7 @@
       <c r="C36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>514</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4655,7 +4570,7 @@
       <c r="C37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>515</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4672,7 +4587,7 @@
       <c r="C38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>516</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -4689,7 +4604,7 @@
       <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>517</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4706,7 +4621,7 @@
       <c r="C40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>518</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -4723,7 +4638,7 @@
       <c r="C41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>519</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4740,7 +4655,7 @@
       <c r="C42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>520</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4757,7 +4672,7 @@
       <c r="C43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4774,7 +4689,7 @@
       <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>522</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4791,7 +4706,7 @@
       <c r="C45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4808,7 +4723,7 @@
       <c r="C46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4825,7 +4740,7 @@
       <c r="C47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4842,7 +4757,7 @@
       <c r="C48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -4859,7 +4774,7 @@
       <c r="C49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>527</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4876,7 +4791,7 @@
       <c r="C50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>528</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -4893,7 +4808,7 @@
       <c r="C51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -4910,7 +4825,7 @@
       <c r="C52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4927,7 +4842,7 @@
       <c r="C53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>531</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -4944,7 +4859,7 @@
       <c r="C54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>532</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -4961,7 +4876,7 @@
       <c r="C55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4978,7 +4893,7 @@
       <c r="C56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>534</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4995,7 +4910,7 @@
       <c r="C57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>535</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -5012,7 +4927,7 @@
       <c r="C58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>536</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -5029,7 +4944,7 @@
       <c r="C59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>537</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -5046,7 +4961,7 @@
       <c r="C60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>538</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -5063,7 +4978,7 @@
       <c r="C61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>539</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -5080,7 +4995,7 @@
       <c r="C62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>540</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -5097,7 +5012,7 @@
       <c r="C63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>541</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -5114,7 +5029,7 @@
       <c r="C64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>542</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -5131,7 +5046,7 @@
       <c r="C65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>543</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -5148,7 +5063,7 @@
       <c r="C66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>544</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -5165,7 +5080,7 @@
       <c r="C67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>545</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -5182,7 +5097,7 @@
       <c r="C68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>546</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -5199,7 +5114,7 @@
       <c r="C69" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>547</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -5216,7 +5131,7 @@
       <c r="C70" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>548</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -5233,7 +5148,7 @@
       <c r="C71" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>549</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -5250,7 +5165,7 @@
       <c r="C72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>550</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -5267,7 +5182,7 @@
       <c r="C73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>551</v>
       </c>
       <c r="F73" s="1" t="s">
@@ -5284,7 +5199,7 @@
       <c r="C74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>552</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -5301,7 +5216,7 @@
       <c r="C75" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>553</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -5318,7 +5233,7 @@
       <c r="C76" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>554</v>
       </c>
       <c r="F76" s="1" t="s">
@@ -5335,7 +5250,7 @@
       <c r="C77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>555</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -5352,7 +5267,7 @@
       <c r="C78" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>556</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -5369,7 +5284,7 @@
       <c r="C79" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>557</v>
       </c>
       <c r="F79" s="1" t="s">
@@ -5386,7 +5301,7 @@
       <c r="C80" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>558</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -5403,7 +5318,7 @@
       <c r="C81" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>559</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -5420,7 +5335,7 @@
       <c r="C82" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>560</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -5437,7 +5352,7 @@
       <c r="C83" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>561</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -5454,7 +5369,7 @@
       <c r="C84" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>562</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -5471,7 +5386,7 @@
       <c r="C85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="1" t="s">
         <v>563</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -5488,7 +5403,7 @@
       <c r="C86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>564</v>
       </c>
       <c r="F86" s="1" t="s">
@@ -5505,7 +5420,7 @@
       <c r="C87" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>565</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -5522,7 +5437,7 @@
       <c r="C88" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>566</v>
       </c>
       <c r="F88" s="1" t="s">
@@ -5539,7 +5454,7 @@
       <c r="C89" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F89" s="1" t="s">
@@ -5556,7 +5471,7 @@
       <c r="C90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>568</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -5573,7 +5488,7 @@
       <c r="C91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>568</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -5590,7 +5505,7 @@
       <c r="C92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>569</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -5607,7 +5522,7 @@
       <c r="C93" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>570</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -5624,7 +5539,7 @@
       <c r="C94" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>571</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -5641,7 +5556,7 @@
       <c r="C95" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F95" s="1" t="s">
@@ -5658,7 +5573,7 @@
       <c r="C96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="1" t="s">
         <v>568</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -5675,7 +5590,7 @@
       <c r="C97" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="1" t="s">
         <v>568</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -5692,7 +5607,7 @@
       <c r="C98" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>569</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -5709,7 +5624,7 @@
       <c r="C99" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>570</v>
       </c>
       <c r="F99" s="1" t="s">
@@ -5726,7 +5641,7 @@
       <c r="C100" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>571</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -5743,7 +5658,7 @@
       <c r="C101" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -5760,7 +5675,7 @@
       <c r="C102" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="1" t="s">
         <v>573</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -5777,7 +5692,7 @@
       <c r="C103" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="1" t="s">
         <v>574</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -5794,7 +5709,7 @@
       <c r="C104" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -5811,7 +5726,7 @@
       <c r="C105" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>575</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -5828,7 +5743,7 @@
       <c r="C106" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>569</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -5845,7 +5760,7 @@
       <c r="C107" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>570</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -5862,7 +5777,7 @@
       <c r="C108" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="1" t="s">
         <v>571</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -5879,7 +5794,7 @@
       <c r="C109" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="1" t="s">
         <v>572</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -5896,7 +5811,7 @@
       <c r="C110" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -5913,7 +5828,7 @@
       <c r="C111" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -5930,7 +5845,7 @@
       <c r="C112" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>531</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -5947,7 +5862,7 @@
       <c r="C113" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="1" t="s">
         <v>576</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -5964,7 +5879,7 @@
       <c r="C114" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -5981,7 +5896,7 @@
       <c r="C115" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>534</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -5998,7 +5913,7 @@
       <c r="C116" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="1" t="s">
         <v>535</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -6015,7 +5930,7 @@
       <c r="C117" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="1" t="s">
         <v>536</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -6032,7 +5947,7 @@
       <c r="C118" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="1" t="s">
         <v>537</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -6049,7 +5964,7 @@
       <c r="C119" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="1" t="s">
         <v>538</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -6066,7 +5981,7 @@
       <c r="C120" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="1" t="s">
         <v>539</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -6083,7 +5998,7 @@
       <c r="C121" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="1" t="s">
         <v>540</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -6100,7 +6015,7 @@
       <c r="C122" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="1" t="s">
         <v>541</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -6117,7 +6032,7 @@
       <c r="C123" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="1" t="s">
         <v>542</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -6134,7 +6049,7 @@
       <c r="C124" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="1" t="s">
         <v>543</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -6151,7 +6066,7 @@
       <c r="C125" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>544</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -6168,7 +6083,7 @@
       <c r="C126" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="1" t="s">
         <v>545</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -6185,7 +6100,7 @@
       <c r="C127" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="1" t="s">
         <v>546</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -6202,7 +6117,7 @@
       <c r="C128" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="1" t="s">
         <v>648</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -6219,7 +6134,7 @@
       <c r="C129" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="1" t="s">
         <v>548</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -6236,7 +6151,7 @@
       <c r="C130" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="1" t="s">
         <v>549</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -6253,7 +6168,7 @@
       <c r="C131" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="1" t="s">
         <v>550</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -6270,7 +6185,7 @@
       <c r="C132" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="1" t="s">
         <v>551</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -6287,7 +6202,7 @@
       <c r="C133" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="1" t="s">
         <v>552</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -6304,7 +6219,7 @@
       <c r="C134" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="1" t="s">
         <v>553</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -6321,7 +6236,7 @@
       <c r="C135" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="1" t="s">
         <v>554</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -6338,7 +6253,7 @@
       <c r="C136" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="1" t="s">
         <v>647</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -6355,7 +6270,7 @@
       <c r="C137" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="1" t="s">
         <v>556</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -6372,7 +6287,7 @@
       <c r="C138" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="1" t="s">
         <v>557</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -6389,7 +6304,7 @@
       <c r="C139" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="1" t="s">
         <v>558</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -6406,7 +6321,7 @@
       <c r="C140" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="1" t="s">
         <v>561</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -6423,7 +6338,7 @@
       <c r="C141" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="1" t="s">
         <v>562</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -6440,7 +6355,7 @@
       <c r="C142" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="1" t="s">
         <v>577</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -6457,7 +6372,7 @@
       <c r="C143" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -6474,7 +6389,7 @@
       <c r="C144" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="1" t="s">
         <v>579</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -6491,7 +6406,7 @@
       <c r="C145" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="1" t="s">
         <v>578</v>
       </c>
       <c r="F145" s="1" t="s">
@@ -6508,7 +6423,7 @@
       <c r="C146" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="1" t="s">
         <v>580</v>
       </c>
       <c r="F146" s="1" t="s">
@@ -6525,7 +6440,7 @@
       <c r="C147" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="1" t="s">
         <v>566</v>
       </c>
       <c r="F147" s="1" t="s">
@@ -6542,7 +6457,7 @@
       <c r="C148" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="1" t="s">
         <v>581</v>
       </c>
       <c r="F148" s="1" t="s">
@@ -6559,7 +6474,7 @@
       <c r="C149" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="1" t="s">
         <v>582</v>
       </c>
       <c r="F149" s="1" t="s">
@@ -6576,7 +6491,7 @@
       <c r="C150" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="1" t="s">
         <v>583</v>
       </c>
       <c r="F150" s="1" t="s">
@@ -6593,7 +6508,7 @@
       <c r="C151" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="1" t="s">
         <v>584</v>
       </c>
       <c r="F151" s="1" t="s">
@@ -6610,7 +6525,7 @@
       <c r="C152" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="1" t="s">
         <v>585</v>
       </c>
       <c r="F152" s="1" t="s">
@@ -6627,7 +6542,7 @@
       <c r="C153" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="1" t="s">
         <v>586</v>
       </c>
       <c r="F153" s="1" t="s">
@@ -6644,7 +6559,7 @@
       <c r="C154" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="1" t="s">
         <v>587</v>
       </c>
       <c r="F154" s="1" t="s">
@@ -6661,7 +6576,7 @@
       <c r="C155" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="1" t="s">
         <v>588</v>
       </c>
       <c r="F155" s="1" t="s">
@@ -6678,7 +6593,7 @@
       <c r="C156" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -6695,7 +6610,7 @@
       <c r="C157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -6712,7 +6627,7 @@
       <c r="C158" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F158" s="1" t="s">
@@ -6729,7 +6644,7 @@
       <c r="C159" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -6746,7 +6661,7 @@
       <c r="C160" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="1" t="s">
         <v>591</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -6763,7 +6678,7 @@
       <c r="C161" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="1" t="s">
         <v>592</v>
       </c>
       <c r="F161" s="1" t="s">
@@ -6780,7 +6695,7 @@
       <c r="C162" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F162" s="1" t="s">
@@ -6797,7 +6712,7 @@
       <c r="C163" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -6814,7 +6729,7 @@
       <c r="C164" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="1" t="s">
         <v>594</v>
       </c>
       <c r="F164" s="1" t="s">
@@ -6831,7 +6746,7 @@
       <c r="C165" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="1" t="s">
         <v>589</v>
       </c>
       <c r="F165" s="1" t="s">
@@ -6848,7 +6763,7 @@
       <c r="C166" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F166" s="1" t="s">
@@ -6865,7 +6780,7 @@
       <c r="C167" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="1" t="s">
         <v>591</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -6882,7 +6797,7 @@
       <c r="C168" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="1" t="s">
         <v>592</v>
       </c>
       <c r="F168" s="1" t="s">
@@ -6899,7 +6814,7 @@
       <c r="C169" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="1" t="s">
         <v>593</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -6916,7 +6831,7 @@
       <c r="C170" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F170" s="1" t="s">
@@ -6933,7 +6848,7 @@
       <c r="C171" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="1" t="s">
         <v>595</v>
       </c>
       <c r="F171" s="1" t="s">
@@ -6950,7 +6865,7 @@
       <c r="C172" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="1" t="s">
         <v>596</v>
       </c>
       <c r="F172" s="1" t="s">
@@ -6967,7 +6882,7 @@
       <c r="C173" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="1" t="s">
         <v>597</v>
       </c>
       <c r="F173" s="1" t="s">
@@ -6984,7 +6899,7 @@
       <c r="C174" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="1" t="s">
         <v>598</v>
       </c>
       <c r="F174" s="1" t="s">
@@ -7001,7 +6916,7 @@
       <c r="C175" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="1" t="s">
         <v>590</v>
       </c>
       <c r="F175" s="1" t="s">
@@ -7225,8 +7140,8 @@
       <c r="E188" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>652</v>
+      <c r="F188" s="2" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -7243,7 +7158,7 @@
         <v>630</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,7 +7175,7 @@
         <v>634</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -7277,7 +7192,7 @@
         <v>637</v>
       </c>
       <c r="F191" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -7294,7 +7209,7 @@
         <v>640</v>
       </c>
       <c r="F192" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -7311,7 +7226,7 @@
         <v>643</v>
       </c>
       <c r="F193" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -7328,7 +7243,7 @@
         <v>646</v>
       </c>
       <c r="F194" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
